--- a/src/main/resources/init-data/crop_final.xlsx
+++ b/src/main/resources/init-data/crop_final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ynuo365-my.sharepoint.com/personal/22010668_ynu_kr/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimdoyeon/Desktop/NYM/src/main/resources/init-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5B7D02A-C2C8-6242-9F84-AE4AA66F47EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF0D865-5E8A-544C-A1A4-FE403833AD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="5480" windowWidth="38400" windowHeight="21620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="576">
   <si>
     <t>카테고리</t>
   </si>
@@ -1472,261 +1472,6 @@
     <t>회향풀 또는 그 열매를 말하며 대회향과 소회향이 있는데 약으로도 쓰고 기름도 짬.</t>
   </si>
   <si>
-    <t>잡초</t>
-  </si>
-  <si>
-    <t>가는보리풀</t>
-  </si>
-  <si>
-    <t>가는살갈퀴</t>
-  </si>
-  <si>
-    <t>가는털비름</t>
-  </si>
-  <si>
-    <t>가락지나물</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>장미과에 속하는 다년초. 줄기는 땅으로 뻗고, 길이 60㎝ 가량이며, 근생엽(根生葉)은 장병(長柄)으로 다섯 개의 소엽(小葉)이 있고, 거친 톱니로 둘렸음. 뱀혀. 학명은 Potentilla anemonifolia Lehm.</t>
-  </si>
-  <si>
-    <t>가래</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>떡이나 엿 따위를 둥글고 길게 늘어놓은 토막.</t>
-  </si>
-  <si>
-    <t>가막사리</t>
-  </si>
-  <si>
-    <t>245</t>
-  </si>
-  <si>
-    <t>국화과에 속하는 일년생 풀로 앞은 보통 세 갈래로 갈라지고 습지에서 나며, 꽃은 황색이며 가을에 핌. 학명은 Bidens tripartita L.</t>
-  </si>
-  <si>
-    <t>가시박</t>
-  </si>
-  <si>
-    <t>가시비름</t>
-  </si>
-  <si>
-    <t>가시상추</t>
-  </si>
-  <si>
-    <t>가을강아지풀</t>
-  </si>
-  <si>
-    <t>갈대</t>
-  </si>
-  <si>
-    <t>1173</t>
-  </si>
-  <si>
-    <t>화본과에 속하는 다년생으로서 습지나 물가에 자생하는 야초. 학명은 Phragmites australis</t>
-  </si>
-  <si>
-    <t>갈퀴꼭두서니</t>
-  </si>
-  <si>
-    <t>갈퀴나물</t>
-  </si>
-  <si>
-    <t>갈퀴덩굴</t>
-  </si>
-  <si>
-    <t>1267</t>
-  </si>
-  <si>
-    <t>꼭두서닛과에 속하는 이년생(二年生) 만초(萬草). 줄기 길이 1m 가량이며 잎은 피침형으로 가늘고 긴데 대개 6∼8개씩 윤생(輪生)함. 학명은 Galium spurium var. echinospermon</t>
-  </si>
-  <si>
-    <t>강아지풀</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>볏과에 속(屬)하는 일년초. 줄기는 총생(叢生)하고 높이 30∼70cm 이며, 잎은 선형(線形) 또는 피침형 선상(線狀)이고 호생함.</t>
-  </si>
-  <si>
-    <t>강피</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>포아풀과(벼과)에 속한 1년초. 논에 발생하는데 줄기는 편형, 직진, 평활하며 약 1m가량. 뿌리는 수염모양으로 생겼으며 잎은 길어 피침형이고 8∼9월에 담록색의 꽃이 됨.</t>
-  </si>
-  <si>
-    <t>개갓냉이</t>
-  </si>
-  <si>
-    <t>개구리미나리</t>
-  </si>
-  <si>
-    <t>개구리밥</t>
-  </si>
-  <si>
-    <t>1867</t>
-  </si>
-  <si>
-    <t>개구리밥과에 속하는 다년생 수초(水草). 수면에 뜨며 늦가을에 타원형의 동아(冬芽)가 모체에서 떨어져 나와 물 밑에서 월동하고, 이듬해 봄에 수면에 떠서 번식함. 학명은 Spirodela polyrhiza</t>
-  </si>
-  <si>
-    <t>개기장</t>
-  </si>
-  <si>
-    <t>1879</t>
-  </si>
-  <si>
-    <t>벼과의 1년생초로 숲가나 들에 자라며, 원기둥형의 가는 줄기가 곧게 자라고 키는 30∼120cm이며 가지를 많이 침. 학명은 Panicum bisulcatum Thunb.</t>
-  </si>
-  <si>
-    <t>개꽃아재비</t>
-  </si>
-  <si>
-    <t>개망초</t>
-  </si>
-  <si>
-    <t>개미자리</t>
-  </si>
-  <si>
-    <t>1945</t>
-  </si>
-  <si>
-    <t>석죽과(石竹科)에 속하는 풀. 작은 풀로서 잎은 좁고 광택이 있으며 흰 꽃이 핌. 학명은 Sagina japonica (Sw.) Ohwi</t>
-  </si>
-  <si>
-    <t>개밀</t>
-  </si>
-  <si>
-    <t>1952</t>
-  </si>
-  <si>
-    <t>벼과에 속하는 월년생 식물. 밀과 비슷하나 줄기와 잎은 적갈색이고 줄기는 가늘고 들이나 길가에 나는데 한국, 일본, 중국 등에 분포함.</t>
-  </si>
-  <si>
-    <t>개보리</t>
-  </si>
-  <si>
-    <t>개불알풀</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>현삼과의 두해살이풀. 줄기는 높이가 5~15cm이며, 부드러운 잔털이 많이 나 있다. 잎은 아래쪽에서는 마주나고 위쪽에서는 어긋난다. 5~6월에 엷은 붉은 보라색 꽃이 하나씩 피고 열매는 개 불알 모양의 삭과(蒴果)로 잎겨드랑이에 하나씩 달린다. 들이나 논밭에 나는데 우리나라 중ㆍ남부 지방에 널리 분포한다. 학명은 Veronica didyma var. lilacina</t>
-  </si>
-  <si>
-    <t>개비름</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>비름과에 속하는 일년생 풀의 하나. 줄기는 연질이고 잎은 호생하며 달걀모양임. 논밭이나 길가에 많이 분포하고 어린잎은 식용함.</t>
-  </si>
-  <si>
-    <t>개소시랑개비</t>
-  </si>
-  <si>
-    <t>개쇠뜨기</t>
-  </si>
-  <si>
-    <t>개쑥갓</t>
-  </si>
-  <si>
-    <t>개여뀌</t>
-  </si>
-  <si>
-    <t>개자리</t>
-  </si>
-  <si>
-    <t>2090</t>
-  </si>
-  <si>
-    <t>개질경이</t>
-  </si>
-  <si>
-    <t>개피</t>
-  </si>
-  <si>
-    <t>갯드렁새</t>
-  </si>
-  <si>
-    <t>갯메꽃</t>
-  </si>
-  <si>
-    <t>갯줄풀</t>
-  </si>
-  <si>
-    <t>거지덩굴</t>
-  </si>
-  <si>
-    <t>2388</t>
-  </si>
-  <si>
-    <t>포도과에 속하는 다년생 만초(蔓草). 지하경(地下莖)은 땅 속에 가로 뻗으며 줄기는 모가나고 녹자색으로 다른 것에 감기어 올라감.</t>
-  </si>
-  <si>
-    <t>겨우사리</t>
-  </si>
-  <si>
-    <t>겹달맞이꽃</t>
-  </si>
-  <si>
-    <t>계요등</t>
-  </si>
-  <si>
-    <t>고들빼기</t>
-  </si>
-  <si>
-    <t>108987</t>
-  </si>
-  <si>
-    <t>국화과에 속하는 2년생 초본식물이다. 우리나라 중부 이남에 분포하며 산기슭, 들, 밭두둑, 길가에 자생한다. 키는 80cm 정도이며 줄기는 적자색을 띤다. 뿌리 부근에서 나는 잎은 털이 없고 타원형이며 잎의 가장자리가 빗살처럼 갈라져 있으며 잎자루는 없고 잎의 앞면은 녹색이며 뒷면은 회청색이다. 줄기에 나는 잎은 난형이고 밑이 넓어져서 줄기를 감싼다. 잎에는 불규칙한 톱니가 있으며 위쪽으로 갈수록 작아진다.</t>
-  </si>
-  <si>
-    <t>고마리</t>
-  </si>
-  <si>
-    <t>고사리</t>
-  </si>
-  <si>
-    <t>116688</t>
-  </si>
-  <si>
-    <t>참고사리과에 속하는 다년생의 양치류(羊齒類)로 햇빛이 잘 쬐는 산야에서 자생하는 구황식품이다. 근경(根莖)은 연필대만큼 크고 굳으며 땅 속에서 가로누워 있다. 이른 봄에 싹이 근경에서 돋아 나와서 꼭대기가 꼬불꼬불하게 말리고 흰 솜 같은 털로 온통 덮여 있다. 어린 잎과 줄기를 채취하여 삶은 다음 물에 담구어 식물의 쓴맛과 떫은 맛을 우려낸 후 건조하여 저장한다.</t>
-  </si>
-  <si>
-    <t>고삼</t>
-  </si>
-  <si>
-    <t>176628</t>
-  </si>
-  <si>
-    <t>콩과의 여러해살이풀. 높이는 80~100cm이며, 여름에 나비 모양의 엷은 노란색 꽃이 총상(總狀) 화서로 줄기와 가지 끝에 핀다. 협과(莢果)를 맺으며 뿌리는 약용한다. 산이나 들에서 나는데 우리나라 각지에 분포한다.</t>
-  </si>
-  <si>
-    <t>골풀</t>
-  </si>
-  <si>
-    <t>5241</t>
-  </si>
-  <si>
-    <t>골풀과의 여러해살이풀. 높이는 1미터 정도이고 땅속줄기는 옆으로 뻗으며, 잎은 줄기 아랫부분에 비늘 모양으로 붙어 있다. 5~6월에 녹빛을 띤 노란색 꽃이 취산(聚繖) 화서로 줄기 끝에 피고, 열매는 삭과(蒴果)를 맺는다. 말린 줄기는 약재(藥材)나 자리를 만드는 데 쓴다. 들의 물가나 습한 땅에서 자라는데 한국, 일본, 중국 등지에 분포한다.</t>
-  </si>
-  <si>
-    <t>공단풀</t>
-  </si>
-  <si>
     <t>벼목 벼과에 속하는 한해살이풀이자 곡류의 일종.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1951,14 +1696,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>열대아시아에서 유래한 귀화식물로서 한해살이풀이다. 키는 30~70cm이다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고마리는 마디풀과에 딸린 한해살이풀이다. 한국 원산이며 중국·일본·러시아 극동부에도 서식한다. 메밀 비슷한 열매가 맺는데, 그것으로 수제비 비슷한 음식을 만들어 먹기 위해 구황식물로 재배되었던 적도 있으나, 지금은 잡초이다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>꽃자루가 긴 화려한 꽃을 피우는 난초과의 관엽식물</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2095,123 +1832,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>계요등(鷄尿藤)은 꼭두서니과의 잎 지는 덩굴나무이다. 아시아 온대와 열대 전역에 분포한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>달맞이꽃속은 바늘꽃과의 속으로 약 125 종으로 이루어져 있다. 원산지는 칠레이며 7월에 노란 꽃이 핀다. 밤에만 꽃이 피기 때문에 ‘달맞이꽃’, ‘월견초’라 한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>쌍떡잎식물 단향목에 속하는 기생 식물들을 일컫는 말. 기생관목. 겨우살이, 겨우사리, 동청(冬靑), 기생목(寄生木) 등으로 불린다. 영어로는 Mistletoe라고 한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여러해살이풀로 갯벌 조간대에서 자라며, 땅속줄기가 길게 벋고 마디에서 줄기를 내어 큰 군락을 이룬다. 어른 키보다 높게 자라고 굵기는 0.5-1.5cm이다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">갯메꽃(Calystegia soldanella)은 여러해살이 덩굴식물로서[1], 땅속 줄기는 모래 속에 길게 뻗고, 땅위줄기는 땅 위에 가로눕거나 다른 물건에 감겨서 뻗는다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>갯드렁새속(----屬, 학명: Diplachne 디플라크네[*])은 벼과의 속이다.[1] 과거에는 100여 종을 포함하는 큰 속으로 여겨졌으나, 많은 종이 다른 속으로 재분류되었다. 갯드렁새속에 속하는 2종 중 갯드렁새 1종이 한국에 자생한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개피는 벼과 개피속의 두해살이풀로 학명은 Beckmannia syzigachne이다. 늪피 또는 물피라고도 한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개질경이(Plantago camtschatica)는 한국 각처의 해변이나 들에 나는 여러해살이풀이다. 전체에 거친 털이 밀생하며 원줄기는 없다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개자리속은 콩과의 여러해살이풀로 이루어진 속이다. 종에 따라 알팔파(스페인어: alfalfa), 루선(lucerne)이라고도 부른다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개여뀌는 마디풀과 여뀌속의 한해살이풀이다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개쑥갓(Senecio vulgaris)은 국화과에 딸린 한해살이풀길가나 빈터에서 흔하게 자란다. 유럽 원산의 귀화식물이며, 거의 1년 내내 꽃이 핀다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개소시랑개비(문화어: 깃쇠스랑개비)는 앵초과에 속하는 여러해살이풀이다. 북부 아프리카, 유라시아 원산이다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>물가에 자라는 여러해살이풀이다. 지상경은 생식줄기만 있으며, 높이 20-80cm, 직경 2-5mm, 5-10개의 능선이 있고 가지는 10개 미만으로 달리며, 끝 부분에는 가지가 없다. 잎집은 길이 4-12mm, 연한 녹색이다. 치편의 끝은 진한 갈색이며, 길이 1.2-4.0mm, 가장자리는 흰색의 막질이다. 포자낭이삭은 원줄기 끝에 붙으며, 타원형, 길이 1-3cm이다. 우리나라 북부지방에 자라며, 울릉도와 대구 등지에서 채집된 기록이 있으나, 더 이상 확인되고 있지 않고 있다. 세계적으로 북반구 온대의 북부지방에 분포한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개보리는 벼과의 여러해살이풀로 학명은 Elymus sibiricus이다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개망초(영어: annual fleabane, daisy fleabane 또는 eastern daisy fleabane)는 전 세계 온대 지방에 주로 서식하는 국화과의 두해살이풀이다. 망국초, 왜풀, 개망풀이라고도 한다.[1] 북아메리카 원산의 귀화식물이다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>햇볕이 잘 드는 공한지, 길가 등에 자라는 한해살이풀로 귀화식물이다. 줄기는 높이 20~40cm이다. 잎은 어긋나며, 대개는 잎자루가 없다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개구리미나리(Ranunculus tachiroei)는 한국 각처 산이나 들의 습지에 나는 두해살이풀이다. 길이는 50-100cm이다. 근생엽과 밑부분의 경생엽은 잎자루가 길고, 2회 3출의 작은잎으로 된 겹잎, 작은잎은 길이 3-6cm, 깊게 2-3갈래, 가장자리에 불규칙한 톱니 모양이다. 꽃은 취산꽃차례로 노란색이며 지름 1cm 내외이다. 꽃받침은 5장, 연녹색, 겉에 털이 약간 있다. 열매는 수과로 화탁에 모여 별사탕 모양의 열매 덩이를 형성한다. 줄기와 잎은 약용으로 쓴다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>민가 주변 길가, 경작지 및 산지 숲 가장자리의 햇빛이 잘 드는 곳에 자라는 여러해살이풀이다. 줄기는 높이 20~50cm, 가지가 많이 갈라지며, 전체에 털이 없다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>갈퀴나물은 한국을 비롯하여 일본·중국·시베리아의 온대에서 난대에 걸쳐 분포하는 여러해살이 덩굴식물로 들에서 자란다. 땅속줄기를뻗으면서 자라며 줄기는 길이 1-2m로 능선이 있어 네모진다. 잎은 어긋나며 거의 잎자루가 없다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>쌍떡잎식물 꿀풀목 꿀풀과 골무꽃속에 속하는 식물이자 한방에서 쓰이는 중요 약재. 순우리말로는 '속썩은풀'이라고도 한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>황기(黃芪/黃耆)는 콩과에 속하는 다년생 초본식물이다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가는 보리풀은 유럽에서 들어온 외래종으로 초장은 30~60㎝이며, 많이 모여 나고 곧추서고, 하부는 흔히 붉은빛을 띠는 것으로 알려져 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주로 들이나 저지대의 햇빛이 잘 드는 풀밭에서 자라는 여러해살이풀이다. 줄기는 높이 60~150cm, 덩굴지거나 다른 물체를 감고 오르며, 단면은 네모나고, 연한 털이 있거나 없다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가시도꼬마리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">길가나 들판에 자라는 한해살이풀이다. 줄기는 높이 40~120cm, 전체에 검은 자주색 잔 점이 있다. 잎은 어긋나며 길이 6~12cm의 잎자루가 있다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가시박(Sicyos angulatus)은 북미 원산의 박과 식물로 한해살이풀이다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가시비름은 쌍떡잎식물 중심자목 비름과의 한해살이풀이다. 남아메리카가 원산이다. 높이는 40~80cm이고 줄기에 능선이 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>국화과에 속하는 한해살이 혹은 두해살이풀. 한국인이 쌈채소로 즐겨먹는 상추의 야생종이다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>경작지 주변이나 길가에 흔하게 자라는 한해살이풀이다. 줄기는 곧추서거나 밑부분이 휘어지며 높이 40~100cm이다. 잎집의 가장자리에 센털이 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>다년초여부: 다년생 - Perennial plant ; 열매. 장과는 2개씩 달리고 둥글며 지름 5-6mm로 8-9월에 흑색으로 익으며 1개의 종자가 들어 있다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2588,10 +2213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E267"/>
+  <dimension ref="A1:E217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E123" sqref="E123"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="A218" sqref="A218:H269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2797,7 +2422,7 @@
         <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>568</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2859,7 +2484,7 @@
         <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>569</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2904,7 +2529,7 @@
         <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>570</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3051,7 +2676,7 @@
         <v>80</v>
       </c>
       <c r="E28" t="s">
-        <v>571</v>
+        <v>486</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3085,7 +2710,7 @@
         <v>85</v>
       </c>
       <c r="E30" t="s">
-        <v>572</v>
+        <v>487</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3181,7 +2806,7 @@
         <v>101</v>
       </c>
       <c r="E36" t="s">
-        <v>573</v>
+        <v>488</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3209,7 +2834,7 @@
         <v>105</v>
       </c>
       <c r="E38" t="s">
-        <v>574</v>
+        <v>489</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3288,7 +2913,7 @@
         <v>118</v>
       </c>
       <c r="E43" t="s">
-        <v>575</v>
+        <v>490</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3367,7 +2992,7 @@
         <v>132</v>
       </c>
       <c r="E48" t="s">
-        <v>576</v>
+        <v>491</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3701,7 +3326,7 @@
         <v>190</v>
       </c>
       <c r="E68" t="s">
-        <v>577</v>
+        <v>492</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3729,7 +3354,7 @@
         <v>194</v>
       </c>
       <c r="E70" t="s">
-        <v>578</v>
+        <v>493</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3825,7 +3450,7 @@
         <v>210</v>
       </c>
       <c r="E76" t="s">
-        <v>579</v>
+        <v>494</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3853,7 +3478,7 @@
         <v>214</v>
       </c>
       <c r="E78" t="s">
-        <v>580</v>
+        <v>495</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3915,7 +3540,7 @@
         <v>224</v>
       </c>
       <c r="E82" t="s">
-        <v>581</v>
+        <v>496</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3974,10 +3599,10 @@
         <v>122</v>
       </c>
       <c r="B86" t="s">
-        <v>582</v>
+        <v>497</v>
       </c>
       <c r="E86" t="s">
-        <v>583</v>
+        <v>498</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3988,7 +3613,7 @@
         <v>234</v>
       </c>
       <c r="E87" t="s">
-        <v>584</v>
+        <v>499</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3999,7 +3624,7 @@
         <v>235</v>
       </c>
       <c r="E88" t="s">
-        <v>585</v>
+        <v>500</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4027,7 +3652,7 @@
         <v>239</v>
       </c>
       <c r="E90" t="s">
-        <v>586</v>
+        <v>501</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4188,10 +3813,10 @@
         <v>122</v>
       </c>
       <c r="B100" t="s">
-        <v>587</v>
+        <v>502</v>
       </c>
       <c r="E100" t="s">
-        <v>588</v>
+        <v>503</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4270,7 +3895,7 @@
         <v>280</v>
       </c>
       <c r="E105" t="s">
-        <v>589</v>
+        <v>504</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4281,7 +3906,7 @@
         <v>281</v>
       </c>
       <c r="E106" t="s">
-        <v>590</v>
+        <v>505</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4343,7 +3968,7 @@
         <v>291</v>
       </c>
       <c r="E110" t="s">
-        <v>591</v>
+        <v>506</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4371,7 +3996,7 @@
         <v>295</v>
       </c>
       <c r="E112" t="s">
-        <v>592</v>
+        <v>507</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4382,7 +4007,7 @@
         <v>296</v>
       </c>
       <c r="E113" t="s">
-        <v>593</v>
+        <v>508</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4478,7 +4103,7 @@
         <v>309</v>
       </c>
       <c r="E119" t="s">
-        <v>594</v>
+        <v>509</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4540,7 +4165,7 @@
         <v>319</v>
       </c>
       <c r="E123" t="s">
-        <v>690</v>
+        <v>575</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4551,7 +4176,7 @@
         <v>320</v>
       </c>
       <c r="E124" t="s">
-        <v>595</v>
+        <v>510</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4559,10 +4184,10 @@
         <v>267</v>
       </c>
       <c r="B125" t="s">
-        <v>596</v>
+        <v>511</v>
       </c>
       <c r="E125" t="s">
-        <v>597</v>
+        <v>512</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4573,7 +4198,7 @@
         <v>321</v>
       </c>
       <c r="E126" t="s">
-        <v>598</v>
+        <v>513</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4601,7 +4226,7 @@
         <v>325</v>
       </c>
       <c r="E128" t="s">
-        <v>599</v>
+        <v>514</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4646,7 +4271,7 @@
         <v>332</v>
       </c>
       <c r="E131" t="s">
-        <v>600</v>
+        <v>515</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4671,10 +4296,10 @@
         <v>267</v>
       </c>
       <c r="B133" t="s">
-        <v>601</v>
+        <v>516</v>
       </c>
       <c r="E133" t="s">
-        <v>602</v>
+        <v>517</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4719,7 +4344,7 @@
         <v>342</v>
       </c>
       <c r="E136" t="s">
-        <v>603</v>
+        <v>518</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4761,10 +4386,10 @@
         <v>267</v>
       </c>
       <c r="B139" t="s">
-        <v>604</v>
+        <v>519</v>
       </c>
       <c r="E139" t="s">
-        <v>605</v>
+        <v>520</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4772,10 +4397,10 @@
         <v>267</v>
       </c>
       <c r="B140" t="s">
-        <v>606</v>
+        <v>521</v>
       </c>
       <c r="E140" t="s">
-        <v>607</v>
+        <v>522</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4817,10 +4442,10 @@
         <v>267</v>
       </c>
       <c r="B143" t="s">
-        <v>608</v>
+        <v>523</v>
       </c>
       <c r="E143" t="s">
-        <v>609</v>
+        <v>524</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4828,10 +4453,10 @@
         <v>267</v>
       </c>
       <c r="B144" t="s">
-        <v>611</v>
+        <v>526</v>
       </c>
       <c r="E144" t="s">
-        <v>612</v>
+        <v>527</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4842,7 +4467,7 @@
         <v>355</v>
       </c>
       <c r="E145" t="s">
-        <v>610</v>
+        <v>525</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4850,10 +4475,10 @@
         <v>267</v>
       </c>
       <c r="B146" t="s">
-        <v>614</v>
+        <v>529</v>
       </c>
       <c r="E146" t="s">
-        <v>615</v>
+        <v>530</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4898,7 +4523,7 @@
         <v>362</v>
       </c>
       <c r="E149" t="s">
-        <v>613</v>
+        <v>528</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4909,7 +4534,7 @@
         <v>363</v>
       </c>
       <c r="E150" t="s">
-        <v>616</v>
+        <v>531</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4917,10 +4542,10 @@
         <v>267</v>
       </c>
       <c r="B151" t="s">
-        <v>619</v>
+        <v>534</v>
       </c>
       <c r="E151" t="s">
-        <v>620</v>
+        <v>535</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4928,10 +4553,10 @@
         <v>267</v>
       </c>
       <c r="B152" t="s">
-        <v>617</v>
+        <v>532</v>
       </c>
       <c r="E152" t="s">
-        <v>618</v>
+        <v>533</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4939,10 +4564,10 @@
         <v>267</v>
       </c>
       <c r="B153" t="s">
-        <v>621</v>
+        <v>536</v>
       </c>
       <c r="E153" t="s">
-        <v>622</v>
+        <v>537</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4950,10 +4575,10 @@
         <v>267</v>
       </c>
       <c r="B154" t="s">
-        <v>623</v>
+        <v>538</v>
       </c>
       <c r="E154" t="s">
-        <v>626</v>
+        <v>539</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4961,10 +4586,10 @@
         <v>267</v>
       </c>
       <c r="B155" t="s">
-        <v>627</v>
+        <v>540</v>
       </c>
       <c r="E155" t="s">
-        <v>628</v>
+        <v>541</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4992,7 +4617,7 @@
         <v>367</v>
       </c>
       <c r="E157" t="s">
-        <v>629</v>
+        <v>542</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5003,7 +4628,7 @@
         <v>368</v>
       </c>
       <c r="E158" t="s">
-        <v>630</v>
+        <v>543</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5031,7 +4656,7 @@
         <v>372</v>
       </c>
       <c r="E160" t="s">
-        <v>631</v>
+        <v>544</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5076,7 +4701,7 @@
         <v>379</v>
       </c>
       <c r="E163" t="s">
-        <v>632</v>
+        <v>545</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5206,7 +4831,7 @@
         <v>401</v>
       </c>
       <c r="E171" t="s">
-        <v>633</v>
+        <v>546</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5234,7 +4859,7 @@
         <v>405</v>
       </c>
       <c r="E173" t="s">
-        <v>634</v>
+        <v>547</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5245,7 +4870,7 @@
         <v>406</v>
       </c>
       <c r="E174" t="s">
-        <v>635</v>
+        <v>548</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5256,7 +4881,7 @@
         <v>407</v>
       </c>
       <c r="E175" t="s">
-        <v>636</v>
+        <v>549</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5267,7 +4892,7 @@
         <v>408</v>
       </c>
       <c r="E176" t="s">
-        <v>637</v>
+        <v>550</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5278,7 +4903,7 @@
         <v>409</v>
       </c>
       <c r="E177" t="s">
-        <v>638</v>
+        <v>551</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5289,7 +4914,7 @@
         <v>410</v>
       </c>
       <c r="E178" t="s">
-        <v>639</v>
+        <v>552</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5317,7 +4942,7 @@
         <v>415</v>
       </c>
       <c r="E180" t="s">
-        <v>640</v>
+        <v>553</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5325,10 +4950,10 @@
         <v>411</v>
       </c>
       <c r="B181" t="s">
-        <v>641</v>
+        <v>554</v>
       </c>
       <c r="E181" t="s">
-        <v>642</v>
+        <v>555</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5339,7 +4964,7 @@
         <v>416</v>
       </c>
       <c r="E182" t="s">
-        <v>643</v>
+        <v>556</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5486,7 +5111,7 @@
         <v>435</v>
       </c>
       <c r="E191" t="s">
-        <v>644</v>
+        <v>557</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5514,7 +5139,7 @@
         <v>439</v>
       </c>
       <c r="E193" t="s">
-        <v>645</v>
+        <v>558</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5525,7 +5150,7 @@
         <v>440</v>
       </c>
       <c r="E194" t="s">
-        <v>646</v>
+        <v>559</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5536,7 +5161,7 @@
         <v>441</v>
       </c>
       <c r="E195" t="s">
-        <v>647</v>
+        <v>560</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5547,7 +5172,7 @@
         <v>442</v>
       </c>
       <c r="E196" t="s">
-        <v>648</v>
+        <v>561</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5592,7 +5217,7 @@
         <v>449</v>
       </c>
       <c r="E199" t="s">
-        <v>649</v>
+        <v>562</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5603,7 +5228,7 @@
         <v>450</v>
       </c>
       <c r="E200" t="s">
-        <v>650</v>
+        <v>563</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5679,10 +5304,10 @@
         <v>411</v>
       </c>
       <c r="B205" t="s">
-        <v>651</v>
+        <v>564</v>
       </c>
       <c r="E205" t="s">
-        <v>652</v>
+        <v>565</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5744,7 +5369,7 @@
         <v>472</v>
       </c>
       <c r="E209" t="s">
-        <v>653</v>
+        <v>566</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5755,7 +5380,7 @@
         <v>473</v>
       </c>
       <c r="E210" t="s">
-        <v>654</v>
+        <v>567</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5763,10 +5388,10 @@
         <v>411</v>
       </c>
       <c r="B211" t="s">
-        <v>656</v>
+        <v>569</v>
       </c>
       <c r="E211" t="s">
-        <v>657</v>
+        <v>570</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5777,7 +5402,7 @@
         <v>474</v>
       </c>
       <c r="E212" t="s">
-        <v>655</v>
+        <v>568</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5785,10 +5410,10 @@
         <v>411</v>
       </c>
       <c r="B213" t="s">
-        <v>658</v>
+        <v>571</v>
       </c>
       <c r="E213" t="s">
-        <v>659</v>
+        <v>572</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5816,7 +5441,7 @@
         <v>478</v>
       </c>
       <c r="E215" t="s">
-        <v>679</v>
+        <v>573</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5827,7 +5452,7 @@
         <v>479</v>
       </c>
       <c r="E216" t="s">
-        <v>680</v>
+        <v>574</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5845,673 +5470,6 @@
       </c>
       <c r="E217" t="s">
         <v>482</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218" t="s">
-        <v>483</v>
-      </c>
-      <c r="B218" t="s">
-        <v>484</v>
-      </c>
-      <c r="E218" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" t="s">
-        <v>483</v>
-      </c>
-      <c r="B219" t="s">
-        <v>485</v>
-      </c>
-      <c r="E219" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220" t="s">
-        <v>483</v>
-      </c>
-      <c r="B220" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="A221" t="s">
-        <v>483</v>
-      </c>
-      <c r="B221" t="s">
-        <v>487</v>
-      </c>
-      <c r="C221">
-        <v>166</v>
-      </c>
-      <c r="D221" t="s">
-        <v>488</v>
-      </c>
-      <c r="E221" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" t="s">
-        <v>483</v>
-      </c>
-      <c r="B222" t="s">
-        <v>490</v>
-      </c>
-      <c r="C222">
-        <v>170</v>
-      </c>
-      <c r="D222" t="s">
-        <v>491</v>
-      </c>
-      <c r="E222" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
-      <c r="A223" t="s">
-        <v>483</v>
-      </c>
-      <c r="B223" t="s">
-        <v>493</v>
-      </c>
-      <c r="C223">
-        <v>245</v>
-      </c>
-      <c r="D223" t="s">
-        <v>494</v>
-      </c>
-      <c r="E223" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="A224" t="s">
-        <v>483</v>
-      </c>
-      <c r="B224" t="s">
-        <v>683</v>
-      </c>
-      <c r="E224" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
-      <c r="A225" t="s">
-        <v>483</v>
-      </c>
-      <c r="B225" t="s">
-        <v>496</v>
-      </c>
-      <c r="E225" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
-      <c r="A226" t="s">
-        <v>483</v>
-      </c>
-      <c r="B226" t="s">
-        <v>497</v>
-      </c>
-      <c r="E226" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
-      <c r="A227" t="s">
-        <v>483</v>
-      </c>
-      <c r="B227" t="s">
-        <v>498</v>
-      </c>
-      <c r="E227" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
-      <c r="A228" t="s">
-        <v>483</v>
-      </c>
-      <c r="B228" t="s">
-        <v>499</v>
-      </c>
-      <c r="E228" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
-      <c r="A229" t="s">
-        <v>483</v>
-      </c>
-      <c r="B229" t="s">
-        <v>500</v>
-      </c>
-      <c r="C229">
-        <v>1173</v>
-      </c>
-      <c r="D229" t="s">
-        <v>501</v>
-      </c>
-      <c r="E229" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
-      <c r="A230" t="s">
-        <v>483</v>
-      </c>
-      <c r="B230" t="s">
-        <v>503</v>
-      </c>
-      <c r="E230" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
-      <c r="A231" t="s">
-        <v>483</v>
-      </c>
-      <c r="B231" t="s">
-        <v>504</v>
-      </c>
-      <c r="E231" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
-      <c r="A232" t="s">
-        <v>483</v>
-      </c>
-      <c r="B232" t="s">
-        <v>505</v>
-      </c>
-      <c r="C232">
-        <v>1267</v>
-      </c>
-      <c r="D232" t="s">
-        <v>506</v>
-      </c>
-      <c r="E232" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
-      <c r="A233" t="s">
-        <v>483</v>
-      </c>
-      <c r="B233" t="s">
-        <v>126</v>
-      </c>
-      <c r="C233">
-        <v>1602</v>
-      </c>
-      <c r="D233" t="s">
-        <v>127</v>
-      </c>
-      <c r="E233" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
-      <c r="A234" t="s">
-        <v>483</v>
-      </c>
-      <c r="B234" t="s">
-        <v>508</v>
-      </c>
-      <c r="C234">
-        <v>1705</v>
-      </c>
-      <c r="D234" t="s">
-        <v>509</v>
-      </c>
-      <c r="E234" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
-      <c r="A235" t="s">
-        <v>483</v>
-      </c>
-      <c r="B235" t="s">
-        <v>511</v>
-      </c>
-      <c r="C235">
-        <v>1807</v>
-      </c>
-      <c r="D235" t="s">
-        <v>512</v>
-      </c>
-      <c r="E235" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
-      <c r="A236" t="s">
-        <v>483</v>
-      </c>
-      <c r="B236" t="s">
-        <v>514</v>
-      </c>
-      <c r="E236" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
-      <c r="A237" t="s">
-        <v>483</v>
-      </c>
-      <c r="B237" t="s">
-        <v>515</v>
-      </c>
-      <c r="E237" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
-      <c r="A238" t="s">
-        <v>483</v>
-      </c>
-      <c r="B238" t="s">
-        <v>516</v>
-      </c>
-      <c r="C238">
-        <v>1867</v>
-      </c>
-      <c r="D238" t="s">
-        <v>517</v>
-      </c>
-      <c r="E238" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
-      <c r="A239" t="s">
-        <v>483</v>
-      </c>
-      <c r="B239" t="s">
-        <v>519</v>
-      </c>
-      <c r="C239">
-        <v>1879</v>
-      </c>
-      <c r="D239" t="s">
-        <v>520</v>
-      </c>
-      <c r="E239" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
-      <c r="A240" t="s">
-        <v>483</v>
-      </c>
-      <c r="B240" t="s">
-        <v>522</v>
-      </c>
-      <c r="E240" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
-      <c r="A241" t="s">
-        <v>483</v>
-      </c>
-      <c r="B241" t="s">
-        <v>415</v>
-      </c>
-      <c r="E241" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
-      <c r="A242" t="s">
-        <v>483</v>
-      </c>
-      <c r="B242" t="s">
-        <v>523</v>
-      </c>
-      <c r="E242" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
-      <c r="A243" t="s">
-        <v>483</v>
-      </c>
-      <c r="B243" t="s">
-        <v>524</v>
-      </c>
-      <c r="C243">
-        <v>1945</v>
-      </c>
-      <c r="D243" t="s">
-        <v>525</v>
-      </c>
-      <c r="E243" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
-      <c r="A244" t="s">
-        <v>483</v>
-      </c>
-      <c r="B244" t="s">
-        <v>527</v>
-      </c>
-      <c r="C244">
-        <v>1952</v>
-      </c>
-      <c r="D244" t="s">
-        <v>528</v>
-      </c>
-      <c r="E244" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
-      <c r="A245" t="s">
-        <v>483</v>
-      </c>
-      <c r="B245" t="s">
-        <v>530</v>
-      </c>
-      <c r="E245" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
-      <c r="A246" t="s">
-        <v>483</v>
-      </c>
-      <c r="B246" t="s">
-        <v>531</v>
-      </c>
-      <c r="C246">
-        <v>2022</v>
-      </c>
-      <c r="D246" t="s">
-        <v>532</v>
-      </c>
-      <c r="E246" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
-      <c r="A247" t="s">
-        <v>483</v>
-      </c>
-      <c r="B247" t="s">
-        <v>534</v>
-      </c>
-      <c r="C247">
-        <v>2023</v>
-      </c>
-      <c r="D247" t="s">
-        <v>535</v>
-      </c>
-      <c r="E247" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
-      <c r="A248" t="s">
-        <v>483</v>
-      </c>
-      <c r="B248" t="s">
-        <v>537</v>
-      </c>
-      <c r="E248" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
-      <c r="A249" t="s">
-        <v>483</v>
-      </c>
-      <c r="B249" t="s">
-        <v>538</v>
-      </c>
-      <c r="E249" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
-      <c r="A250" t="s">
-        <v>483</v>
-      </c>
-      <c r="B250" t="s">
-        <v>539</v>
-      </c>
-      <c r="E250" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
-      <c r="A251" t="s">
-        <v>483</v>
-      </c>
-      <c r="B251" t="s">
-        <v>540</v>
-      </c>
-      <c r="E251" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
-      <c r="A252" t="s">
-        <v>483</v>
-      </c>
-      <c r="B252" t="s">
-        <v>541</v>
-      </c>
-      <c r="C252">
-        <v>2090</v>
-      </c>
-      <c r="D252" t="s">
-        <v>542</v>
-      </c>
-      <c r="E252" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
-      <c r="A253" t="s">
-        <v>483</v>
-      </c>
-      <c r="B253" t="s">
-        <v>543</v>
-      </c>
-      <c r="E253" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
-      <c r="A254" t="s">
-        <v>483</v>
-      </c>
-      <c r="B254" t="s">
-        <v>544</v>
-      </c>
-      <c r="E254" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
-      <c r="A255" t="s">
-        <v>483</v>
-      </c>
-      <c r="B255" t="s">
-        <v>545</v>
-      </c>
-      <c r="E255" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
-      <c r="A256" t="s">
-        <v>483</v>
-      </c>
-      <c r="B256" t="s">
-        <v>546</v>
-      </c>
-      <c r="E256" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
-      <c r="A257" t="s">
-        <v>483</v>
-      </c>
-      <c r="B257" t="s">
-        <v>547</v>
-      </c>
-      <c r="E257" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
-      <c r="A258" t="s">
-        <v>483</v>
-      </c>
-      <c r="B258" t="s">
-        <v>548</v>
-      </c>
-      <c r="C258">
-        <v>2388</v>
-      </c>
-      <c r="D258" t="s">
-        <v>549</v>
-      </c>
-      <c r="E258" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
-      <c r="A259" t="s">
-        <v>483</v>
-      </c>
-      <c r="B259" t="s">
-        <v>551</v>
-      </c>
-      <c r="E259" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
-      <c r="A260" t="s">
-        <v>483</v>
-      </c>
-      <c r="B260" t="s">
-        <v>552</v>
-      </c>
-      <c r="E260" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
-      <c r="A261" t="s">
-        <v>483</v>
-      </c>
-      <c r="B261" t="s">
-        <v>553</v>
-      </c>
-      <c r="E261" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
-      <c r="A262" t="s">
-        <v>483</v>
-      </c>
-      <c r="B262" t="s">
-        <v>554</v>
-      </c>
-      <c r="C262">
-        <v>108987</v>
-      </c>
-      <c r="D262" t="s">
-        <v>555</v>
-      </c>
-      <c r="E262" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
-      <c r="A263" t="s">
-        <v>483</v>
-      </c>
-      <c r="B263" t="s">
-        <v>557</v>
-      </c>
-      <c r="E263" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
-      <c r="A264" t="s">
-        <v>483</v>
-      </c>
-      <c r="B264" t="s">
-        <v>558</v>
-      </c>
-      <c r="C264">
-        <v>116688</v>
-      </c>
-      <c r="D264" t="s">
-        <v>559</v>
-      </c>
-      <c r="E264" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
-      <c r="A265" t="s">
-        <v>483</v>
-      </c>
-      <c r="B265" t="s">
-        <v>561</v>
-      </c>
-      <c r="C265">
-        <v>176628</v>
-      </c>
-      <c r="D265" t="s">
-        <v>562</v>
-      </c>
-      <c r="E265" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
-      <c r="A266" t="s">
-        <v>483</v>
-      </c>
-      <c r="B266" t="s">
-        <v>564</v>
-      </c>
-      <c r="C266">
-        <v>5241</v>
-      </c>
-      <c r="D266" t="s">
-        <v>565</v>
-      </c>
-      <c r="E266" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
-      <c r="A267" t="s">
-        <v>483</v>
-      </c>
-      <c r="B267" t="s">
-        <v>567</v>
-      </c>
-      <c r="E267" t="s">
-        <v>624</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/init-data/crop_final.xlsx
+++ b/src/main/resources/init-data/crop_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimdoyeon/Desktop/NYM/src/main/resources/init-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF0D865-5E8A-544C-A1A4-FE403833AD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124B3D88-38C5-4D49-A6C2-73E7D219BD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18420" yWindow="3000" windowWidth="19980" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="576">
   <si>
     <t>카테고리</t>
   </si>
@@ -2213,10 +2213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E217"/>
+  <dimension ref="A1:E214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="A218" sqref="A218:H269"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="A188" sqref="A188:E188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -3119,16 +3119,16 @@
         <v>122</v>
       </c>
       <c r="B56" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C56">
-        <v>14473</v>
+        <v>15224</v>
       </c>
       <c r="D56" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E56" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3136,16 +3136,16 @@
         <v>122</v>
       </c>
       <c r="B57" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C57">
-        <v>15224</v>
+        <v>16304</v>
       </c>
       <c r="D57" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E57" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3153,16 +3153,16 @@
         <v>122</v>
       </c>
       <c r="B58" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C58">
-        <v>16304</v>
+        <v>114688</v>
       </c>
       <c r="D58" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E58" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3170,16 +3170,16 @@
         <v>122</v>
       </c>
       <c r="B59" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C59">
-        <v>114688</v>
+        <v>18062</v>
       </c>
       <c r="D59" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E59" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3187,16 +3187,16 @@
         <v>122</v>
       </c>
       <c r="B60" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C60">
-        <v>18062</v>
+        <v>18306</v>
       </c>
       <c r="D60" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E60" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3204,16 +3204,16 @@
         <v>122</v>
       </c>
       <c r="B61" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C61">
-        <v>18306</v>
+        <v>19219</v>
       </c>
       <c r="D61" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E61" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3221,16 +3221,16 @@
         <v>122</v>
       </c>
       <c r="B62" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C62">
-        <v>19219</v>
+        <v>20110</v>
       </c>
       <c r="D62" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E62" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3238,16 +3238,16 @@
         <v>122</v>
       </c>
       <c r="B63" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C63">
-        <v>20110</v>
+        <v>22444</v>
       </c>
       <c r="D63" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E63" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3255,16 +3255,16 @@
         <v>122</v>
       </c>
       <c r="B64" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C64">
-        <v>22444</v>
+        <v>24830</v>
       </c>
       <c r="D64" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E64" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3272,16 +3272,16 @@
         <v>122</v>
       </c>
       <c r="B65" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C65">
-        <v>24830</v>
+        <v>25896</v>
       </c>
       <c r="D65" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E65" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3289,16 +3289,16 @@
         <v>122</v>
       </c>
       <c r="B66" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C66">
-        <v>25896</v>
+        <v>110275</v>
       </c>
       <c r="D66" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E66" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3306,16 +3306,10 @@
         <v>122</v>
       </c>
       <c r="B67" t="s">
-        <v>187</v>
-      </c>
-      <c r="C67">
-        <v>110275</v>
-      </c>
-      <c r="D67" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E67" t="s">
-        <v>189</v>
+        <v>492</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3323,10 +3317,16 @@
         <v>122</v>
       </c>
       <c r="B68" t="s">
-        <v>190</v>
+        <v>191</v>
+      </c>
+      <c r="C68">
+        <v>29051</v>
+      </c>
+      <c r="D68" t="s">
+        <v>192</v>
       </c>
       <c r="E68" t="s">
-        <v>492</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3334,16 +3334,10 @@
         <v>122</v>
       </c>
       <c r="B69" t="s">
-        <v>191</v>
-      </c>
-      <c r="C69">
-        <v>29051</v>
-      </c>
-      <c r="D69" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E69" t="s">
-        <v>193</v>
+        <v>493</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3351,10 +3345,16 @@
         <v>122</v>
       </c>
       <c r="B70" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="C70">
+        <v>29326</v>
+      </c>
+      <c r="D70" t="s">
+        <v>196</v>
       </c>
       <c r="E70" t="s">
-        <v>493</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3362,16 +3362,16 @@
         <v>122</v>
       </c>
       <c r="B71" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C71">
-        <v>29326</v>
+        <v>32808</v>
       </c>
       <c r="D71" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E71" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3379,16 +3379,16 @@
         <v>122</v>
       </c>
       <c r="B72" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C72">
-        <v>32808</v>
+        <v>33757</v>
       </c>
       <c r="D72" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E72" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3396,16 +3396,16 @@
         <v>122</v>
       </c>
       <c r="B73" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C73">
-        <v>33757</v>
+        <v>34432</v>
       </c>
       <c r="D73" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E73" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3413,16 +3413,16 @@
         <v>122</v>
       </c>
       <c r="B74" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C74">
-        <v>34432</v>
+        <v>36215</v>
       </c>
       <c r="D74" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E74" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3430,16 +3430,10 @@
         <v>122</v>
       </c>
       <c r="B75" t="s">
-        <v>207</v>
-      </c>
-      <c r="C75">
-        <v>36215</v>
-      </c>
-      <c r="D75" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E75" t="s">
-        <v>209</v>
+        <v>494</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3447,10 +3441,16 @@
         <v>122</v>
       </c>
       <c r="B76" t="s">
-        <v>210</v>
+        <v>211</v>
+      </c>
+      <c r="C76">
+        <v>36804</v>
+      </c>
+      <c r="D76" t="s">
+        <v>212</v>
       </c>
       <c r="E76" t="s">
-        <v>494</v>
+        <v>213</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3458,16 +3458,10 @@
         <v>122</v>
       </c>
       <c r="B77" t="s">
-        <v>211</v>
-      </c>
-      <c r="C77">
-        <v>36804</v>
-      </c>
-      <c r="D77" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E77" t="s">
-        <v>213</v>
+        <v>495</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3475,10 +3469,16 @@
         <v>122</v>
       </c>
       <c r="B78" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="C78">
+        <v>38546</v>
+      </c>
+      <c r="D78" t="s">
+        <v>216</v>
       </c>
       <c r="E78" t="s">
-        <v>495</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3486,16 +3486,16 @@
         <v>122</v>
       </c>
       <c r="B79" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C79">
-        <v>38546</v>
+        <v>38810</v>
       </c>
       <c r="D79" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E79" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3503,16 +3503,16 @@
         <v>122</v>
       </c>
       <c r="B80" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C80">
-        <v>38810</v>
+        <v>39766</v>
       </c>
       <c r="D80" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E80" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3520,16 +3520,10 @@
         <v>122</v>
       </c>
       <c r="B81" t="s">
-        <v>221</v>
-      </c>
-      <c r="C81">
-        <v>39766</v>
-      </c>
-      <c r="D81" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E81" t="s">
-        <v>223</v>
+        <v>496</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3537,10 +3531,16 @@
         <v>122</v>
       </c>
       <c r="B82" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="C82">
+        <v>41943</v>
+      </c>
+      <c r="D82" t="s">
+        <v>226</v>
       </c>
       <c r="E82" t="s">
-        <v>496</v>
+        <v>227</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3548,16 +3548,16 @@
         <v>122</v>
       </c>
       <c r="B83" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C83">
-        <v>41943</v>
+        <v>111604</v>
       </c>
       <c r="D83" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E83" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3565,16 +3565,16 @@
         <v>122</v>
       </c>
       <c r="B84" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C84">
-        <v>111604</v>
+        <v>43480</v>
       </c>
       <c r="D84" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E84" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3582,16 +3582,10 @@
         <v>122</v>
       </c>
       <c r="B85" t="s">
-        <v>231</v>
-      </c>
-      <c r="C85">
-        <v>43480</v>
-      </c>
-      <c r="D85" t="s">
-        <v>232</v>
+        <v>497</v>
       </c>
       <c r="E85" t="s">
-        <v>233</v>
+        <v>498</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3599,10 +3593,10 @@
         <v>122</v>
       </c>
       <c r="B86" t="s">
-        <v>497</v>
+        <v>234</v>
       </c>
       <c r="E86" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3610,10 +3604,10 @@
         <v>122</v>
       </c>
       <c r="B87" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E87" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3621,10 +3615,16 @@
         <v>122</v>
       </c>
       <c r="B88" t="s">
-        <v>235</v>
+        <v>236</v>
+      </c>
+      <c r="C88">
+        <v>59131</v>
+      </c>
+      <c r="D88" t="s">
+        <v>237</v>
       </c>
       <c r="E88" t="s">
-        <v>500</v>
+        <v>238</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3632,16 +3632,10 @@
         <v>122</v>
       </c>
       <c r="B89" t="s">
-        <v>236</v>
-      </c>
-      <c r="C89">
-        <v>59131</v>
-      </c>
-      <c r="D89" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E89" t="s">
-        <v>238</v>
+        <v>501</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3649,10 +3643,16 @@
         <v>122</v>
       </c>
       <c r="B90" t="s">
-        <v>239</v>
+        <v>240</v>
+      </c>
+      <c r="C90">
+        <v>112564</v>
+      </c>
+      <c r="D90" t="s">
+        <v>241</v>
       </c>
       <c r="E90" t="s">
-        <v>501</v>
+        <v>242</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3660,16 +3660,16 @@
         <v>122</v>
       </c>
       <c r="B91" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C91">
-        <v>112564</v>
+        <v>62199</v>
       </c>
       <c r="D91" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E91" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3677,16 +3677,16 @@
         <v>122</v>
       </c>
       <c r="B92" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C92">
-        <v>62199</v>
+        <v>112763</v>
       </c>
       <c r="D92" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E92" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3694,16 +3694,16 @@
         <v>122</v>
       </c>
       <c r="B93" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C93">
-        <v>112763</v>
+        <v>63934</v>
       </c>
       <c r="D93" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E93" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3711,16 +3711,16 @@
         <v>122</v>
       </c>
       <c r="B94" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C94">
-        <v>63934</v>
+        <v>65116</v>
       </c>
       <c r="D94" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E94" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3728,16 +3728,16 @@
         <v>122</v>
       </c>
       <c r="B95" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C95">
-        <v>65116</v>
+        <v>65285</v>
       </c>
       <c r="D95" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E95" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3745,16 +3745,16 @@
         <v>122</v>
       </c>
       <c r="B96" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C96">
-        <v>65285</v>
+        <v>65443</v>
       </c>
       <c r="D96" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E96" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3762,16 +3762,16 @@
         <v>122</v>
       </c>
       <c r="B97" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C97">
-        <v>65443</v>
+        <v>116385</v>
       </c>
       <c r="D97" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E97" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3779,16 +3779,16 @@
         <v>122</v>
       </c>
       <c r="B98" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C98">
-        <v>116385</v>
+        <v>70814</v>
       </c>
       <c r="D98" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E98" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3796,27 +3796,27 @@
         <v>122</v>
       </c>
       <c r="B99" t="s">
-        <v>264</v>
-      </c>
-      <c r="C99">
-        <v>70814</v>
-      </c>
-      <c r="D99" t="s">
-        <v>265</v>
+        <v>502</v>
       </c>
       <c r="E99" t="s">
-        <v>266</v>
+        <v>503</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>122</v>
+        <v>267</v>
       </c>
       <c r="B100" t="s">
-        <v>502</v>
+        <v>268</v>
+      </c>
+      <c r="C100">
+        <v>5758</v>
+      </c>
+      <c r="D100" t="s">
+        <v>269</v>
       </c>
       <c r="E100" t="s">
-        <v>503</v>
+        <v>270</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3824,16 +3824,16 @@
         <v>267</v>
       </c>
       <c r="B101" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C101">
-        <v>5758</v>
+        <v>8460</v>
       </c>
       <c r="D101" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E101" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3841,16 +3841,16 @@
         <v>267</v>
       </c>
       <c r="B102" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C102">
-        <v>8460</v>
+        <v>8466</v>
       </c>
       <c r="D102" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E102" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3858,16 +3858,16 @@
         <v>267</v>
       </c>
       <c r="B103" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C103">
-        <v>8466</v>
+        <v>9621</v>
       </c>
       <c r="D103" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E103" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3875,16 +3875,10 @@
         <v>267</v>
       </c>
       <c r="B104" t="s">
-        <v>277</v>
-      </c>
-      <c r="C104">
-        <v>9621</v>
-      </c>
-      <c r="D104" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E104" t="s">
-        <v>279</v>
+        <v>504</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3892,10 +3886,10 @@
         <v>267</v>
       </c>
       <c r="B105" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E105" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3903,10 +3897,16 @@
         <v>267</v>
       </c>
       <c r="B106" t="s">
-        <v>281</v>
+        <v>282</v>
+      </c>
+      <c r="C106">
+        <v>109981</v>
+      </c>
+      <c r="D106" t="s">
+        <v>283</v>
       </c>
       <c r="E106" t="s">
-        <v>505</v>
+        <v>284</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3914,16 +3914,16 @@
         <v>267</v>
       </c>
       <c r="B107" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C107">
-        <v>109981</v>
+        <v>109915</v>
       </c>
       <c r="D107" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E107" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3931,16 +3931,16 @@
         <v>267</v>
       </c>
       <c r="B108" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C108">
-        <v>109915</v>
+        <v>22600</v>
       </c>
       <c r="D108" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E108" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3948,16 +3948,10 @@
         <v>267</v>
       </c>
       <c r="B109" t="s">
-        <v>288</v>
-      </c>
-      <c r="C109">
-        <v>22600</v>
-      </c>
-      <c r="D109" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E109" t="s">
-        <v>290</v>
+        <v>506</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3965,10 +3959,16 @@
         <v>267</v>
       </c>
       <c r="B110" t="s">
-        <v>291</v>
+        <v>292</v>
+      </c>
+      <c r="C110">
+        <v>25802</v>
+      </c>
+      <c r="D110" t="s">
+        <v>293</v>
       </c>
       <c r="E110" t="s">
-        <v>506</v>
+        <v>294</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3976,16 +3976,10 @@
         <v>267</v>
       </c>
       <c r="B111" t="s">
-        <v>292</v>
-      </c>
-      <c r="C111">
-        <v>25802</v>
-      </c>
-      <c r="D111" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E111" t="s">
-        <v>294</v>
+        <v>507</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3993,10 +3987,10 @@
         <v>267</v>
       </c>
       <c r="B112" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E112" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4004,10 +3998,16 @@
         <v>267</v>
       </c>
       <c r="B113" t="s">
-        <v>296</v>
+        <v>297</v>
+      </c>
+      <c r="C113">
+        <v>53519</v>
+      </c>
+      <c r="D113" t="s">
+        <v>298</v>
       </c>
       <c r="E113" t="s">
-        <v>508</v>
+        <v>299</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4015,16 +4015,16 @@
         <v>267</v>
       </c>
       <c r="B114" t="s">
-        <v>221</v>
+        <v>300</v>
       </c>
       <c r="C114">
-        <v>39766</v>
+        <v>54476</v>
       </c>
       <c r="D114" t="s">
-        <v>222</v>
+        <v>301</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>302</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4032,16 +4032,16 @@
         <v>267</v>
       </c>
       <c r="B115" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C115">
-        <v>53519</v>
+        <v>59454</v>
       </c>
       <c r="D115" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="E115" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4049,16 +4049,16 @@
         <v>267</v>
       </c>
       <c r="B116" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C116">
-        <v>54476</v>
+        <v>65643</v>
       </c>
       <c r="D116" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="E116" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4066,16 +4066,10 @@
         <v>267</v>
       </c>
       <c r="B117" t="s">
-        <v>303</v>
-      </c>
-      <c r="C117">
-        <v>59454</v>
-      </c>
-      <c r="D117" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E117" t="s">
-        <v>305</v>
+        <v>509</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4083,16 +4077,16 @@
         <v>267</v>
       </c>
       <c r="B118" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C118">
-        <v>65643</v>
+        <v>69601</v>
       </c>
       <c r="D118" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E118" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4100,10 +4094,16 @@
         <v>267</v>
       </c>
       <c r="B119" t="s">
-        <v>309</v>
+        <v>313</v>
+      </c>
+      <c r="C119">
+        <v>2351</v>
+      </c>
+      <c r="D119" t="s">
+        <v>314</v>
       </c>
       <c r="E119" t="s">
-        <v>509</v>
+        <v>315</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4111,16 +4111,16 @@
         <v>267</v>
       </c>
       <c r="B120" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C120">
-        <v>69601</v>
+        <v>7508</v>
       </c>
       <c r="D120" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="E120" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4128,16 +4128,10 @@
         <v>267</v>
       </c>
       <c r="B121" t="s">
-        <v>313</v>
-      </c>
-      <c r="C121">
-        <v>2351</v>
-      </c>
-      <c r="D121" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="E121" t="s">
-        <v>315</v>
+        <v>575</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4145,16 +4139,10 @@
         <v>267</v>
       </c>
       <c r="B122" t="s">
-        <v>316</v>
-      </c>
-      <c r="C122">
-        <v>7508</v>
-      </c>
-      <c r="D122" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E122" t="s">
-        <v>318</v>
+        <v>510</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4162,10 +4150,10 @@
         <v>267</v>
       </c>
       <c r="B123" t="s">
-        <v>319</v>
+        <v>511</v>
       </c>
       <c r="E123" t="s">
-        <v>575</v>
+        <v>512</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4173,10 +4161,10 @@
         <v>267</v>
       </c>
       <c r="B124" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E124" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4184,10 +4172,16 @@
         <v>267</v>
       </c>
       <c r="B125" t="s">
-        <v>511</v>
+        <v>322</v>
+      </c>
+      <c r="C125">
+        <v>61654</v>
+      </c>
+      <c r="D125" t="s">
+        <v>323</v>
       </c>
       <c r="E125" t="s">
-        <v>512</v>
+        <v>324</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4195,10 +4189,10 @@
         <v>267</v>
       </c>
       <c r="B126" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E126" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4206,16 +4200,16 @@
         <v>267</v>
       </c>
       <c r="B127" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C127">
-        <v>61654</v>
+        <v>8317</v>
       </c>
       <c r="D127" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E127" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4223,10 +4217,16 @@
         <v>267</v>
       </c>
       <c r="B128" t="s">
-        <v>325</v>
+        <v>329</v>
+      </c>
+      <c r="C128">
+        <v>12445</v>
+      </c>
+      <c r="D128" t="s">
+        <v>330</v>
       </c>
       <c r="E128" t="s">
-        <v>514</v>
+        <v>331</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4234,16 +4234,10 @@
         <v>267</v>
       </c>
       <c r="B129" t="s">
-        <v>326</v>
-      </c>
-      <c r="C129">
-        <v>8317</v>
-      </c>
-      <c r="D129" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="E129" t="s">
-        <v>328</v>
+        <v>515</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4251,16 +4245,16 @@
         <v>267</v>
       </c>
       <c r="B130" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C130">
-        <v>12445</v>
+        <v>110215</v>
       </c>
       <c r="D130" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="E130" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4268,10 +4262,10 @@
         <v>267</v>
       </c>
       <c r="B131" t="s">
-        <v>332</v>
+        <v>516</v>
       </c>
       <c r="E131" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4279,16 +4273,16 @@
         <v>267</v>
       </c>
       <c r="B132" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C132">
-        <v>110215</v>
+        <v>61838</v>
       </c>
       <c r="D132" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E132" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4296,10 +4290,16 @@
         <v>267</v>
       </c>
       <c r="B133" t="s">
-        <v>516</v>
+        <v>339</v>
+      </c>
+      <c r="C133">
+        <v>64785</v>
+      </c>
+      <c r="D133" t="s">
+        <v>340</v>
       </c>
       <c r="E133" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4307,16 +4307,10 @@
         <v>267</v>
       </c>
       <c r="B134" t="s">
-        <v>336</v>
-      </c>
-      <c r="C134">
-        <v>61838</v>
-      </c>
-      <c r="D134" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="E134" t="s">
-        <v>338</v>
+        <v>518</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4324,16 +4318,16 @@
         <v>267</v>
       </c>
       <c r="B135" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C135">
-        <v>64785</v>
+        <v>6282</v>
       </c>
       <c r="D135" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E135" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4341,10 +4335,16 @@
         <v>267</v>
       </c>
       <c r="B136" t="s">
-        <v>342</v>
+        <v>346</v>
+      </c>
+      <c r="C136">
+        <v>7555</v>
+      </c>
+      <c r="D136" t="s">
+        <v>347</v>
       </c>
       <c r="E136" t="s">
-        <v>518</v>
+        <v>348</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4352,16 +4352,10 @@
         <v>267</v>
       </c>
       <c r="B137" t="s">
-        <v>343</v>
-      </c>
-      <c r="C137">
-        <v>6282</v>
-      </c>
-      <c r="D137" t="s">
-        <v>344</v>
+        <v>519</v>
       </c>
       <c r="E137" t="s">
-        <v>345</v>
+        <v>520</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4369,16 +4363,10 @@
         <v>267</v>
       </c>
       <c r="B138" t="s">
-        <v>346</v>
-      </c>
-      <c r="C138">
-        <v>7555</v>
-      </c>
-      <c r="D138" t="s">
-        <v>347</v>
+        <v>521</v>
       </c>
       <c r="E138" t="s">
-        <v>348</v>
+        <v>522</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4386,10 +4374,16 @@
         <v>267</v>
       </c>
       <c r="B139" t="s">
-        <v>519</v>
+        <v>349</v>
+      </c>
+      <c r="C139">
+        <v>19141</v>
+      </c>
+      <c r="D139" t="s">
+        <v>350</v>
       </c>
       <c r="E139" t="s">
-        <v>520</v>
+        <v>351</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4397,10 +4391,16 @@
         <v>267</v>
       </c>
       <c r="B140" t="s">
-        <v>521</v>
+        <v>352</v>
+      </c>
+      <c r="C140">
+        <v>31982</v>
+      </c>
+      <c r="D140" t="s">
+        <v>353</v>
       </c>
       <c r="E140" t="s">
-        <v>522</v>
+        <v>354</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4408,16 +4408,10 @@
         <v>267</v>
       </c>
       <c r="B141" t="s">
-        <v>349</v>
-      </c>
-      <c r="C141">
-        <v>19141</v>
-      </c>
-      <c r="D141" t="s">
-        <v>350</v>
+        <v>523</v>
       </c>
       <c r="E141" t="s">
-        <v>351</v>
+        <v>524</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4425,16 +4419,10 @@
         <v>267</v>
       </c>
       <c r="B142" t="s">
-        <v>352</v>
-      </c>
-      <c r="C142">
-        <v>31982</v>
-      </c>
-      <c r="D142" t="s">
-        <v>353</v>
+        <v>526</v>
       </c>
       <c r="E142" t="s">
-        <v>354</v>
+        <v>527</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4442,10 +4430,10 @@
         <v>267</v>
       </c>
       <c r="B143" t="s">
-        <v>523</v>
+        <v>355</v>
       </c>
       <c r="E143" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4453,10 +4441,10 @@
         <v>267</v>
       </c>
       <c r="B144" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="E144" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4464,10 +4452,16 @@
         <v>267</v>
       </c>
       <c r="B145" t="s">
-        <v>355</v>
+        <v>356</v>
+      </c>
+      <c r="C145">
+        <v>36432</v>
+      </c>
+      <c r="D145" t="s">
+        <v>357</v>
       </c>
       <c r="E145" t="s">
-        <v>525</v>
+        <v>358</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4475,10 +4469,16 @@
         <v>267</v>
       </c>
       <c r="B146" t="s">
-        <v>529</v>
+        <v>359</v>
+      </c>
+      <c r="C146">
+        <v>36707</v>
+      </c>
+      <c r="D146" t="s">
+        <v>360</v>
       </c>
       <c r="E146" t="s">
-        <v>530</v>
+        <v>361</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4486,16 +4486,10 @@
         <v>267</v>
       </c>
       <c r="B147" t="s">
-        <v>356</v>
-      </c>
-      <c r="C147">
-        <v>36432</v>
-      </c>
-      <c r="D147" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E147" t="s">
-        <v>358</v>
+        <v>528</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4503,16 +4497,10 @@
         <v>267</v>
       </c>
       <c r="B148" t="s">
-        <v>359</v>
-      </c>
-      <c r="C148">
-        <v>36707</v>
-      </c>
-      <c r="D148" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E148" t="s">
-        <v>361</v>
+        <v>531</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4520,10 +4508,10 @@
         <v>267</v>
       </c>
       <c r="B149" t="s">
-        <v>362</v>
+        <v>534</v>
       </c>
       <c r="E149" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4531,10 +4519,10 @@
         <v>267</v>
       </c>
       <c r="B150" t="s">
-        <v>363</v>
+        <v>532</v>
       </c>
       <c r="E150" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4542,10 +4530,10 @@
         <v>267</v>
       </c>
       <c r="B151" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E151" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4553,10 +4541,10 @@
         <v>267</v>
       </c>
       <c r="B152" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="E152" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4564,10 +4552,10 @@
         <v>267</v>
       </c>
       <c r="B153" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="E153" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4575,10 +4563,16 @@
         <v>267</v>
       </c>
       <c r="B154" t="s">
-        <v>538</v>
+        <v>364</v>
+      </c>
+      <c r="C154">
+        <v>35952</v>
+      </c>
+      <c r="D154" t="s">
+        <v>365</v>
       </c>
       <c r="E154" t="s">
-        <v>539</v>
+        <v>366</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4586,10 +4580,10 @@
         <v>267</v>
       </c>
       <c r="B155" t="s">
-        <v>540</v>
+        <v>367</v>
       </c>
       <c r="E155" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4597,16 +4591,10 @@
         <v>267</v>
       </c>
       <c r="B156" t="s">
-        <v>364</v>
-      </c>
-      <c r="C156">
-        <v>35952</v>
-      </c>
-      <c r="D156" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E156" t="s">
-        <v>366</v>
+        <v>543</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4614,10 +4602,16 @@
         <v>267</v>
       </c>
       <c r="B157" t="s">
-        <v>367</v>
+        <v>369</v>
+      </c>
+      <c r="C157">
+        <v>30400</v>
+      </c>
+      <c r="D157" t="s">
+        <v>370</v>
       </c>
       <c r="E157" t="s">
-        <v>542</v>
+        <v>371</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4625,10 +4619,10 @@
         <v>267</v>
       </c>
       <c r="B158" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="E158" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4636,16 +4630,16 @@
         <v>267</v>
       </c>
       <c r="B159" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C159">
-        <v>30400</v>
+        <v>17969</v>
       </c>
       <c r="D159" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E159" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4653,10 +4647,16 @@
         <v>267</v>
       </c>
       <c r="B160" t="s">
-        <v>372</v>
+        <v>376</v>
+      </c>
+      <c r="C160">
+        <v>44148</v>
+      </c>
+      <c r="D160" t="s">
+        <v>377</v>
       </c>
       <c r="E160" t="s">
-        <v>544</v>
+        <v>378</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4664,16 +4664,10 @@
         <v>267</v>
       </c>
       <c r="B161" t="s">
-        <v>373</v>
-      </c>
-      <c r="C161">
-        <v>17969</v>
-      </c>
-      <c r="D161" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="E161" t="s">
-        <v>375</v>
+        <v>545</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4681,16 +4675,16 @@
         <v>267</v>
       </c>
       <c r="B162" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C162">
-        <v>44148</v>
+        <v>65587</v>
       </c>
       <c r="D162" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E162" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4698,10 +4692,16 @@
         <v>267</v>
       </c>
       <c r="B163" t="s">
-        <v>379</v>
+        <v>383</v>
+      </c>
+      <c r="C163">
+        <v>1880</v>
+      </c>
+      <c r="D163" t="s">
+        <v>384</v>
       </c>
       <c r="E163" t="s">
-        <v>545</v>
+        <v>385</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4709,16 +4709,16 @@
         <v>267</v>
       </c>
       <c r="B164" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C164">
-        <v>65587</v>
+        <v>15161</v>
       </c>
       <c r="D164" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="E164" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4726,16 +4726,16 @@
         <v>267</v>
       </c>
       <c r="B165" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C165">
-        <v>1880</v>
+        <v>19122</v>
       </c>
       <c r="D165" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="E165" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4743,16 +4743,16 @@
         <v>267</v>
       </c>
       <c r="B166" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C166">
-        <v>15161</v>
+        <v>19276</v>
       </c>
       <c r="D166" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="E166" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4760,16 +4760,16 @@
         <v>267</v>
       </c>
       <c r="B167" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C167">
-        <v>19122</v>
+        <v>32518</v>
       </c>
       <c r="D167" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E167" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4777,16 +4777,16 @@
         <v>267</v>
       </c>
       <c r="B168" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C168">
-        <v>19276</v>
+        <v>34864</v>
       </c>
       <c r="D168" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="E168" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4794,16 +4794,10 @@
         <v>267</v>
       </c>
       <c r="B169" t="s">
-        <v>395</v>
-      </c>
-      <c r="C169">
-        <v>32518</v>
-      </c>
-      <c r="D169" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="E169" t="s">
-        <v>397</v>
+        <v>546</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4811,16 +4805,16 @@
         <v>267</v>
       </c>
       <c r="B170" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C170">
-        <v>34864</v>
+        <v>51152</v>
       </c>
       <c r="D170" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="E170" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4828,10 +4822,10 @@
         <v>267</v>
       </c>
       <c r="B171" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="E171" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4839,16 +4833,10 @@
         <v>267</v>
       </c>
       <c r="B172" t="s">
-        <v>402</v>
-      </c>
-      <c r="C172">
-        <v>51152</v>
-      </c>
-      <c r="D172" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E172" t="s">
-        <v>404</v>
+        <v>548</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4856,10 +4844,10 @@
         <v>267</v>
       </c>
       <c r="B173" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E173" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4867,10 +4855,10 @@
         <v>267</v>
       </c>
       <c r="B174" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E174" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4878,10 +4866,10 @@
         <v>267</v>
       </c>
       <c r="B175" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E175" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4889,32 +4877,38 @@
         <v>267</v>
       </c>
       <c r="B176" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E176" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>267</v>
+        <v>411</v>
       </c>
       <c r="B177" t="s">
-        <v>409</v>
+        <v>412</v>
+      </c>
+      <c r="C177">
+        <v>114167</v>
+      </c>
+      <c r="D177" t="s">
+        <v>413</v>
       </c>
       <c r="E177" t="s">
-        <v>551</v>
+        <v>414</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>267</v>
+        <v>411</v>
       </c>
       <c r="B178" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="E178" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4922,16 +4916,10 @@
         <v>411</v>
       </c>
       <c r="B179" t="s">
-        <v>412</v>
-      </c>
-      <c r="C179">
-        <v>114167</v>
-      </c>
-      <c r="D179" t="s">
-        <v>413</v>
+        <v>554</v>
       </c>
       <c r="E179" t="s">
-        <v>414</v>
+        <v>555</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4939,10 +4927,10 @@
         <v>411</v>
       </c>
       <c r="B180" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E180" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4950,10 +4938,16 @@
         <v>411</v>
       </c>
       <c r="B181" t="s">
-        <v>554</v>
+        <v>417</v>
+      </c>
+      <c r="C181">
+        <v>116740</v>
+      </c>
+      <c r="D181" t="s">
+        <v>418</v>
       </c>
       <c r="E181" t="s">
-        <v>555</v>
+        <v>419</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4961,10 +4955,16 @@
         <v>411</v>
       </c>
       <c r="B182" t="s">
-        <v>416</v>
+        <v>420</v>
+      </c>
+      <c r="C182">
+        <v>13466</v>
+      </c>
+      <c r="D182" t="s">
+        <v>421</v>
       </c>
       <c r="E182" t="s">
-        <v>556</v>
+        <v>422</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4972,16 +4972,16 @@
         <v>411</v>
       </c>
       <c r="B183" t="s">
-        <v>417</v>
+        <v>154</v>
       </c>
       <c r="C183">
-        <v>116740</v>
+        <v>14473</v>
       </c>
       <c r="D183" t="s">
-        <v>418</v>
+        <v>155</v>
       </c>
       <c r="E183" t="s">
-        <v>419</v>
+        <v>156</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4989,16 +4989,16 @@
         <v>411</v>
       </c>
       <c r="B184" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C184">
-        <v>13466</v>
+        <v>114451</v>
       </c>
       <c r="D184" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E184" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5006,16 +5006,16 @@
         <v>411</v>
       </c>
       <c r="B185" t="s">
-        <v>154</v>
+        <v>426</v>
       </c>
       <c r="C185">
-        <v>14473</v>
+        <v>15853</v>
       </c>
       <c r="D185" t="s">
-        <v>155</v>
+        <v>427</v>
       </c>
       <c r="E185" t="s">
-        <v>156</v>
+        <v>428</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5023,16 +5023,16 @@
         <v>411</v>
       </c>
       <c r="B186" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="C186">
-        <v>114451</v>
+        <v>16341</v>
       </c>
       <c r="D186" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="E186" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5040,16 +5040,16 @@
         <v>411</v>
       </c>
       <c r="B187" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C187">
-        <v>15853</v>
+        <v>115982</v>
       </c>
       <c r="D187" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="E187" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5057,16 +5057,10 @@
         <v>411</v>
       </c>
       <c r="B188" t="s">
-        <v>429</v>
-      </c>
-      <c r="C188">
-        <v>16341</v>
-      </c>
-      <c r="D188" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="E188" t="s">
-        <v>431</v>
+        <v>557</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5074,16 +5068,16 @@
         <v>411</v>
       </c>
       <c r="B189" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C189">
-        <v>115982</v>
+        <v>18634</v>
       </c>
       <c r="D189" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E189" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5091,16 +5085,10 @@
         <v>411</v>
       </c>
       <c r="B190" t="s">
-        <v>373</v>
-      </c>
-      <c r="C190">
-        <v>17969</v>
-      </c>
-      <c r="D190" t="s">
-        <v>374</v>
+        <v>439</v>
       </c>
       <c r="E190" t="s">
-        <v>375</v>
+        <v>558</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5108,10 +5096,10 @@
         <v>411</v>
       </c>
       <c r="B191" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="E191" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5119,16 +5107,10 @@
         <v>411</v>
       </c>
       <c r="B192" t="s">
-        <v>436</v>
-      </c>
-      <c r="C192">
-        <v>18634</v>
-      </c>
-      <c r="D192" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E192" t="s">
-        <v>438</v>
+        <v>560</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5136,10 +5118,10 @@
         <v>411</v>
       </c>
       <c r="B193" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="E193" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5147,10 +5129,16 @@
         <v>411</v>
       </c>
       <c r="B194" t="s">
-        <v>440</v>
+        <v>443</v>
+      </c>
+      <c r="C194">
+        <v>114920</v>
+      </c>
+      <c r="D194" t="s">
+        <v>444</v>
       </c>
       <c r="E194" t="s">
-        <v>559</v>
+        <v>445</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5158,10 +5146,16 @@
         <v>411</v>
       </c>
       <c r="B195" t="s">
-        <v>441</v>
+        <v>446</v>
+      </c>
+      <c r="C195">
+        <v>115050</v>
+      </c>
+      <c r="D195" t="s">
+        <v>447</v>
       </c>
       <c r="E195" t="s">
-        <v>560</v>
+        <v>448</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5169,10 +5163,10 @@
         <v>411</v>
       </c>
       <c r="B196" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="E196" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5180,16 +5174,10 @@
         <v>411</v>
       </c>
       <c r="B197" t="s">
-        <v>443</v>
-      </c>
-      <c r="C197">
-        <v>114920</v>
-      </c>
-      <c r="D197" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="E197" t="s">
-        <v>445</v>
+        <v>563</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5197,16 +5185,16 @@
         <v>411</v>
       </c>
       <c r="B198" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C198">
-        <v>115050</v>
+        <v>38505</v>
       </c>
       <c r="D198" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="E198" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5214,10 +5202,16 @@
         <v>411</v>
       </c>
       <c r="B199" t="s">
-        <v>449</v>
+        <v>454</v>
+      </c>
+      <c r="C199">
+        <v>115529</v>
+      </c>
+      <c r="D199" t="s">
+        <v>455</v>
       </c>
       <c r="E199" t="s">
-        <v>562</v>
+        <v>456</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5225,10 +5219,16 @@
         <v>411</v>
       </c>
       <c r="B200" t="s">
-        <v>450</v>
+        <v>457</v>
+      </c>
+      <c r="C200">
+        <v>111531</v>
+      </c>
+      <c r="D200" t="s">
+        <v>458</v>
       </c>
       <c r="E200" t="s">
-        <v>563</v>
+        <v>459</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5236,16 +5236,16 @@
         <v>411</v>
       </c>
       <c r="B201" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="C201">
-        <v>38505</v>
+        <v>45739</v>
       </c>
       <c r="D201" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="E201" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5253,16 +5253,10 @@
         <v>411</v>
       </c>
       <c r="B202" t="s">
-        <v>454</v>
-      </c>
-      <c r="C202">
-        <v>115529</v>
-      </c>
-      <c r="D202" t="s">
-        <v>455</v>
+        <v>564</v>
       </c>
       <c r="E202" t="s">
-        <v>456</v>
+        <v>565</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5270,16 +5264,16 @@
         <v>411</v>
       </c>
       <c r="B203" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C203">
-        <v>111531</v>
+        <v>116074</v>
       </c>
       <c r="D203" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="E203" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5287,16 +5281,16 @@
         <v>411</v>
       </c>
       <c r="B204" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="C204">
-        <v>45739</v>
+        <v>58011</v>
       </c>
       <c r="D204" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="E204" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5304,10 +5298,16 @@
         <v>411</v>
       </c>
       <c r="B205" t="s">
-        <v>564</v>
+        <v>469</v>
+      </c>
+      <c r="C205">
+        <v>59114</v>
+      </c>
+      <c r="D205" t="s">
+        <v>470</v>
       </c>
       <c r="E205" t="s">
-        <v>565</v>
+        <v>471</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5315,16 +5315,10 @@
         <v>411</v>
       </c>
       <c r="B206" t="s">
-        <v>463</v>
-      </c>
-      <c r="C206">
-        <v>116074</v>
-      </c>
-      <c r="D206" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="E206" t="s">
-        <v>465</v>
+        <v>566</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5332,16 +5326,10 @@
         <v>411</v>
       </c>
       <c r="B207" t="s">
-        <v>466</v>
-      </c>
-      <c r="C207">
-        <v>58011</v>
-      </c>
-      <c r="D207" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E207" t="s">
-        <v>468</v>
+        <v>567</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5349,16 +5337,10 @@
         <v>411</v>
       </c>
       <c r="B208" t="s">
-        <v>469</v>
-      </c>
-      <c r="C208">
-        <v>59114</v>
-      </c>
-      <c r="D208" t="s">
-        <v>470</v>
+        <v>569</v>
       </c>
       <c r="E208" t="s">
-        <v>471</v>
+        <v>570</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5366,10 +5348,10 @@
         <v>411</v>
       </c>
       <c r="B209" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E209" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5377,10 +5359,10 @@
         <v>411</v>
       </c>
       <c r="B210" t="s">
-        <v>473</v>
+        <v>571</v>
       </c>
       <c r="E210" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5388,10 +5370,16 @@
         <v>411</v>
       </c>
       <c r="B211" t="s">
-        <v>569</v>
+        <v>475</v>
+      </c>
+      <c r="C211">
+        <v>116556</v>
+      </c>
+      <c r="D211" t="s">
+        <v>476</v>
       </c>
       <c r="E211" t="s">
-        <v>570</v>
+        <v>477</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5399,10 +5387,10 @@
         <v>411</v>
       </c>
       <c r="B212" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="E212" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5410,10 +5398,10 @@
         <v>411</v>
       </c>
       <c r="B213" t="s">
-        <v>571</v>
+        <v>479</v>
       </c>
       <c r="E213" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5421,54 +5409,15 @@
         <v>411</v>
       </c>
       <c r="B214" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="C214">
-        <v>116556</v>
+        <v>72423</v>
       </c>
       <c r="D214" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="E214" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="A215" t="s">
-        <v>411</v>
-      </c>
-      <c r="B215" t="s">
-        <v>478</v>
-      </c>
-      <c r="E215" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216" t="s">
-        <v>411</v>
-      </c>
-      <c r="B216" t="s">
-        <v>479</v>
-      </c>
-      <c r="E216" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="A217" t="s">
-        <v>411</v>
-      </c>
-      <c r="B217" t="s">
-        <v>480</v>
-      </c>
-      <c r="C217">
-        <v>72423</v>
-      </c>
-      <c r="D217" t="s">
-        <v>481</v>
-      </c>
-      <c r="E217" t="s">
         <v>482</v>
       </c>
     </row>
